--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\CMS\pneumatic-press\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73921C6B-1B33-47F2-9F85-71BF36A5F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AA39E-62F7-4AF8-BCDB-B7EC328D0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="7720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Wiring DO</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>HS_CAMERA</t>
+  </si>
+  <si>
+    <t>dev6/port0/line27</t>
+  </si>
+  <si>
+    <t>dev6/port0/line30</t>
   </si>
 </sst>
 </file>
@@ -72,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +239,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,25 +1026,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.41015625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.29296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.1171875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.87890625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5859375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1171875" style="4"/>
+    <col min="1" max="1" width="19.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1057,57 +1081,83 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B2"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B3"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B4"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B5"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B6"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B7"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B8"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B9"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B11"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B12"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:U1"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NC,NO,norm_off,norm_on"</formula1>
@@ -1130,22 +1180,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.41015625" customWidth="1"/>
-    <col min="3" max="3" width="21.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5859375" customWidth="1"/>
-    <col min="10" max="10" width="32.1171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1171875" style="3"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1239,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -1200,7 +1250,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1208,7 +1258,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1216,7 +1266,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1224,7 +1274,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1232,7 +1282,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1240,7 +1290,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1248,7 +1298,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1258,7 +1308,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1268,7 +1318,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1278,7 +1328,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1288,7 +1338,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1298,28 +1348,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AA39E-62F7-4AF8-BCDB-B7EC328D0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E753E1-6D72-484F-817F-60A15DBDCC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>CAMERA</t>
-  </si>
-  <si>
     <t>HS_CAMERA</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>dev6/port0/line30</t>
+  </si>
+  <si>
+    <t>dev6/port0/line24</t>
+  </si>
+  <si>
+    <t>SV-N2-02</t>
+  </si>
+  <si>
+    <t>SV-N2-03</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1083,10 +1089,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -1098,10 +1104,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
@@ -1112,7 +1118,18 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B4"/>
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -1136,11 +1153,9 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B11"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
@@ -1159,10 +1174,10 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NC,NO,norm_off,norm_on"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Closed,Opened,on,off,close,open"</formula1>
     </dataValidation>
   </dataValidations>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E753E1-6D72-484F-817F-60A15DBDCC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70295D-FDE5-4585-8331-A7D2C7831712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>dev6/port0/line27</t>
   </si>
   <si>
-    <t>dev6/port0/line30</t>
-  </si>
-  <si>
     <t>dev6/port0/line24</t>
   </si>
   <si>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>SV-N2-03</t>
+  </si>
+  <si>
+    <t>dev6/port0/line25</t>
+  </si>
+  <si>
+    <t>dev6/port0/line26</t>
+  </si>
+  <si>
+    <t>PV-FU-04</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1042,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1089,10 +1095,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -1107,7 +1113,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1133,7 +1139,18 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B5"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33516BF-C1CF-4F94-B137-17583496137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A5EA8-BA9F-42D1-8270-67005EBBA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -58,21 +58,12 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>HS_CAMERA</t>
-  </si>
-  <si>
-    <t>dev6/port0/line27</t>
-  </si>
-  <si>
     <t>dev6/port0/line25</t>
   </si>
   <si>
     <t>dev6/port0/line26</t>
   </si>
   <si>
-    <t>dev6/port0/line28</t>
-  </si>
-  <si>
     <t>Terminal Configuration</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
   </si>
   <si>
     <t>SV_N2_03</t>
-  </si>
-  <si>
-    <t>HEATER</t>
   </si>
 </sst>
 </file>
@@ -264,12 +252,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -595,149 +583,125 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.86328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E8" s="7"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -779,185 +743,185 @@
     <col min="8" max="8" width="9.86328125" customWidth="1"/>
     <col min="9" max="9" width="13.59765625" customWidth="1"/>
     <col min="10" max="10" width="32.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A5EA8-BA9F-42D1-8270-67005EBBA1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86470D67-3673-499E-9747-8492111F4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>SV_N2_03</t>
+  </si>
+  <si>
+    <t>HEATER_BP</t>
+  </si>
+  <si>
+    <t>dev6/port0/line27</t>
   </si>
 </sst>
 </file>
@@ -583,21 +589,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +640,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -649,7 +655,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -664,7 +670,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -679,28 +685,40 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
     </row>
   </sheetData>
@@ -731,22 +749,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" customWidth="1"/>
-    <col min="10" max="10" width="32.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -790,7 +808,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="1"/>
@@ -801,7 +819,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -809,7 +827,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -817,7 +835,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -825,7 +843,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -833,7 +851,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -841,7 +859,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -849,7 +867,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -859,7 +877,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -869,7 +887,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -879,7 +897,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -889,7 +907,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -899,28 +917,28 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86470D67-3673-499E-9747-8492111F4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C26C5-9851-4CC0-A0D6-84F5C47858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>SV_N2_03</t>
-  </si>
-  <si>
-    <t>HEATER_BP</t>
-  </si>
-  <si>
-    <t>dev6/port0/line27</t>
   </si>
 </sst>
 </file>
@@ -589,21 +583,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,7 +634,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -655,7 +649,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -670,7 +664,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -685,40 +679,28 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="5"/>
     </row>
   </sheetData>
@@ -749,22 +731,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="32.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -808,7 +790,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="1"/>
@@ -819,7 +801,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -827,7 +809,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -835,7 +817,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -843,7 +825,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -851,7 +833,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -859,7 +841,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -867,7 +849,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -877,7 +859,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -887,7 +869,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -897,7 +879,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -907,7 +889,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -917,28 +899,28 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
     </row>
   </sheetData>
